--- a/excel_academy/240717/데이터관리0717HW(chlrudghCHOIKYUNGHWAN).xlsx
+++ b/excel_academy/240717/데이터관리0717HW(chlrudghCHOIKYUNGHWAN).xlsx
@@ -1,68 +1,114 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\2419컴1marc\prjdeer\prjdeer\excel_academy\240717\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9D659CD-5E71-43BB-AAAD-58411116D040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFBB04C-B0B9-49DA-B5F2-4E3CF12DB4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="905" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="부분합_01 (모르겠음)" sheetId="18" r:id="rId1"/>
-    <sheet name="부분합_02 (2)" sheetId="20" r:id="rId2"/>
-    <sheet name="부분합_02" sheetId="5" r:id="rId3"/>
+    <sheet name="부분합_02(모르겠음)" sheetId="5" r:id="rId2"/>
+    <sheet name="부분합_02(원본백업)" sheetId="20" r:id="rId3"/>
     <sheet name="통합_01" sheetId="10" r:id="rId4"/>
-    <sheet name="통합_02" sheetId="11" r:id="rId5"/>
-    <sheet name="목표값_01" sheetId="12" r:id="rId6"/>
-    <sheet name="목표값_02" sheetId="13" r:id="rId7"/>
-    <sheet name="시나리오_01" sheetId="14" r:id="rId8"/>
-    <sheet name="시나리오_02" sheetId="15" r:id="rId9"/>
-    <sheet name="피벗테이블_01" sheetId="16" r:id="rId10"/>
-    <sheet name="피벗테이블_02" sheetId="17" r:id="rId11"/>
+    <sheet name="통합_01 (원본백업)" sheetId="21" r:id="rId5"/>
+    <sheet name="통합_02" sheetId="11" r:id="rId6"/>
+    <sheet name="통합_02 (원본)" sheetId="22" r:id="rId7"/>
+    <sheet name="목표값_01" sheetId="12" r:id="rId8"/>
+    <sheet name="목표값_01 (원본)" sheetId="23" r:id="rId9"/>
+    <sheet name="목표값_02" sheetId="13" r:id="rId10"/>
+    <sheet name="목표값_02 (2)" sheetId="24" r:id="rId11"/>
+    <sheet name="시나리오_01" sheetId="14" r:id="rId12"/>
+    <sheet name="시나리오_01 (원본)" sheetId="25" r:id="rId13"/>
+    <sheet name="시나리오_02" sheetId="15" r:id="rId14"/>
+    <sheet name="피벗테이블_01" sheetId="16" r:id="rId15"/>
+    <sheet name="피벗테이블_02" sheetId="17" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'부분합_01 (모르겠음)'!$A$3:$H$27</definedName>
-    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="5" hidden="1">100</definedName>
-    <definedName name="solver_itr" localSheetId="6" hidden="1">100</definedName>
-    <definedName name="solver_lhs1" localSheetId="5" hidden="1">목표값_01!#REF!</definedName>
-    <definedName name="solver_lhs2" localSheetId="5" hidden="1">목표값_01!#REF!</definedName>
-    <definedName name="solver_lin" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_lin" localSheetId="6" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="6" hidden="1">2</definedName>
-    <definedName name="solver_num" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="6" hidden="1">0</definedName>
-    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
-    <definedName name="solver_rel1" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="5" hidden="1">80</definedName>
-    <definedName name="solver_rhs2" localSheetId="5" hidden="1">80</definedName>
-    <definedName name="solver_scl" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_scl" localSheetId="6" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
-    <definedName name="solver_tim" localSheetId="5" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="6" hidden="1">100</definedName>
-    <definedName name="solver_tol" localSheetId="5" hidden="1">0.05</definedName>
-    <definedName name="solver_tol" localSheetId="6" hidden="1">0.05</definedName>
-    <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'부분합_02(모르겠음)'!$A$3:$F$22</definedName>
+    <definedName name="A반품수량">시나리오_01!$E$5</definedName>
+    <definedName name="B반품수량">시나리오_01!$E$6</definedName>
+    <definedName name="C반품수량">시나리오_01!$E$7</definedName>
+    <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="8" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="9" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="10" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="7" hidden="1">100</definedName>
+    <definedName name="solver_itr" localSheetId="8" hidden="1">100</definedName>
+    <definedName name="solver_itr" localSheetId="9" hidden="1">100</definedName>
+    <definedName name="solver_itr" localSheetId="10" hidden="1">100</definedName>
+    <definedName name="solver_lhs1" localSheetId="7" hidden="1">목표값_01!#REF!</definedName>
+    <definedName name="solver_lhs1" localSheetId="8" hidden="1">'목표값_01 (원본)'!#REF!</definedName>
+    <definedName name="solver_lhs2" localSheetId="7" hidden="1">목표값_01!#REF!</definedName>
+    <definedName name="solver_lhs2" localSheetId="8" hidden="1">'목표값_01 (원본)'!#REF!</definedName>
+    <definedName name="solver_lin" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="8" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="10" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="8" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="9" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="10" hidden="1">0.000001</definedName>
+    <definedName name="solver_rel1" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="7" hidden="1">80</definedName>
+    <definedName name="solver_rhs1" localSheetId="8" hidden="1">80</definedName>
+    <definedName name="solver_rhs2" localSheetId="7" hidden="1">80</definedName>
+    <definedName name="solver_rhs2" localSheetId="8" hidden="1">80</definedName>
+    <definedName name="solver_scl" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_tim" localSheetId="7" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="8" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="9" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="10" hidden="1">100</definedName>
+    <definedName name="solver_tol" localSheetId="7" hidden="1">0.05</definedName>
+    <definedName name="solver_tol" localSheetId="8" hidden="1">0.05</definedName>
+    <definedName name="solver_tol" localSheetId="9" hidden="1">0.05</definedName>
+    <definedName name="solver_tol" localSheetId="10" hidden="1">0.05</definedName>
+    <definedName name="solver_typ" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="10" hidden="1">0</definedName>
+    <definedName name="매출액합계">시나리오_01!$H$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -80,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="131">
   <si>
     <t>배달일지</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -410,10 +456,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>청양 고등학교 기말 성적</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>이름</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -571,21 +613,6 @@
   </si>
   <si>
     <t>대리 요약</t>
-  </si>
-  <si>
-    <t>합계</t>
-  </si>
-  <si>
-    <t>평균</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>누계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>과장 평균</t>
@@ -605,6 +632,42 @@
   <si>
     <t>s</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도부영 최소</t>
+  </si>
+  <si>
+    <t>배무현 최소</t>
+  </si>
+  <si>
+    <t>장동욱 최소</t>
+  </si>
+  <si>
+    <t>전체 최소값</t>
+  </si>
+  <si>
+    <t>도부영 최대</t>
+  </si>
+  <si>
+    <t>배무현 최대</t>
+  </si>
+  <si>
+    <t>장동욱 최대</t>
+  </si>
+  <si>
+    <t>전체 최대값</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청양 고등학교 기말 성적 원본</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>청양 고등학교 기말 성적 정답?!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1263,7 +1326,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1451,6 +1514,20 @@
     <xf numFmtId="6" fontId="7" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1481,17 +1558,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1817,6 +1884,799 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF442782-FFDB-4D70-A094-0177E391CB20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5067300" y="1247775"/>
+          <a:ext cx="5953125" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>389880</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>94695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>306360</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133575</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="잉크 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{593D1B1D-A438-4928-80E6-491C1135957B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8162280" y="1590120"/>
+            <a:ext cx="602280" cy="38880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="잉크 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{593D1B1D-A438-4928-80E6-491C1135957B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8153640" y="1581120"/>
+              <a:ext cx="619920" cy="56520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>473610</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>224805</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>73590</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="4" name="잉크 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9CAB3B4-55BC-4CF2-97D8-9A361EEE04B0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2892960" y="342720"/>
+            <a:ext cx="294120" cy="1654920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="잉크 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9CAB3B4-55BC-4CF2-97D8-9A361EEE04B0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2883960" y="333720"/>
+              <a:ext cx="311760" cy="1672560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>92535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>378360</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114495</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="잉크 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36603710-2386-4E13-9076-70C6001EBA8F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8924400" y="1587960"/>
+            <a:ext cx="597960" cy="21960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="잉크 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36603710-2386-4E13-9076-70C6001EBA8F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8915760" y="1578960"/>
+              <a:ext cx="615600" cy="39600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80BB8C7A-AFB8-4B68-980D-D654DF15F486}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1933575" y="3886200"/>
+          <a:ext cx="4352925" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{534D7F95-CE92-4D0C-8DC2-3EA2942E39B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5067300" y="1247775"/>
+          <a:ext cx="5953125" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1" descr="연간매출액&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2238375" y="123825"/>
+          <a:ext cx="2228850" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="808080"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t>연 간 매 출 액</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69E8846-2C6E-495C-8E8B-177C99221076}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7591425" y="723900"/>
+          <a:ext cx="5924550" cy="2276475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD71F60-122F-4BB2-8ACA-2D9A34690E2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7448550" y="4648200"/>
+          <a:ext cx="7077075" cy="3190875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1" descr="연간매출액&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93209C42-9358-49A9-A755-C6502500F68C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2238375" y="123825"/>
+          <a:ext cx="2228850" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF00FF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="808080"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t>연 간 매 출 액</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDCB4952-96AE-45E5-98E4-34A725CD2ED2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7296150" y="781050"/>
+          <a:ext cx="5924550" cy="2276475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B718207-0D82-4716-9739-D79C65415BD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5981700" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>404813</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -1879,7 +2739,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1993,6 +2853,115 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92D0D034-C9BB-4447-B38D-4039BB2892C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5924550" y="295275"/>
+          <a:ext cx="6981825" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>16764</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>93963</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF250EDD-7D98-440D-9457-0F9AA2EB8A80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect t="18243"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="3886199"/>
+          <a:ext cx="18285714" cy="8409289"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -2054,27 +3023,70 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E6482E-56A3-44C8-BCB1-CAA264997DC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="29583" t="11087" r="29570" b="6554"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6822281" y="3512344"/>
+          <a:ext cx="7512844" cy="8632030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92D0D034-C9BB-4447-B38D-4039BB2892C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D16391-4617-4819-95C0-D2E0AC602E29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2083,7 +3095,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2097,8 +3109,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5934075" y="323850"/>
-          <a:ext cx="6981825" cy="1495425"/>
+          <a:off x="7191375" y="742950"/>
+          <a:ext cx="6915150" cy="2019300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2120,7 +3132,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2140,7 +3152,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D16391-4617-4819-95C0-D2E0AC602E29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A68B73-5145-4ECC-A77E-1DE2525B2778}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2186,7 +3198,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2249,10 +3261,376 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28140</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>197790</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>405420</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3690</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="잉크 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F424E2F-4B3B-41A1-8A69-7D902C7F258B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9438840" y="1664640"/>
+            <a:ext cx="2434680" cy="225000"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="잉크 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F424E2F-4B3B-41A1-8A69-7D902C7F258B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9430200" y="1656000"/>
+              <a:ext cx="2452320" cy="242640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A5972C2-76B4-495E-8162-E3F6F0041DB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086600" y="3124200"/>
+          <a:ext cx="5657850" cy="2571750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>답안지 있나요 틀린지 안틀린지 몰것음</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB51427B-52AA-4B3D-9BC0-F612329F0FDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7839075" y="914400"/>
+          <a:ext cx="6677025" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>51523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{907850E1-41FC-4755-9E8D-E9C3A6FC5A61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="18890" r="52437" b="29338"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572001" y="2404198"/>
+          <a:ext cx="7600950" cy="4653827"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>216219</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9807EE3B-3CC3-4EEE-BC56-25A678070C44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5629276" y="733425"/>
+          <a:ext cx="5791200" cy="1397319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>942976</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83EB8B8-AEEA-4B9A-BC61-EC3A7DBA5BCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="942976" y="4810125"/>
+          <a:ext cx="5657850" cy="2571750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>답안지 있나요 틀린지 안틀린지 몰것음</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2272,7 +3650,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9807EE3B-3CC3-4EEE-BC56-25A678070C44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642A6A9C-966E-452F-B1F0-8714CC5EC62A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2318,275 +3696,112 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF442782-FFDB-4D70-A094-0177E391CB20}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5067300" y="1247775"/>
-          <a:ext cx="5953125" cy="1114425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-07-17T12:41:17.295"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 111,'1'1,"0"1,0-1,0 0,1 0,-1 0,0 1,1-1,-1-1,0 1,1 0,0 0,-1 0,1-1,-1 1,1-1,0 0,-1 1,1-1,0 0,-1 0,1 0,0 0,1 0,3 0,598 70,313-21,4-49,-742-2,-138-1,50-9,-7 0,1425-126,-1344 128,423-47,-577 53,-15 0,-30 1,32 3,-1 0,0 0,1 0,-1 0,1 1,-1-1,0 1,1 0,-1 0,-3 2,4 6,16 5,31 13,0-3,81 31,-104-46,627 229,15-33,-657-202,102 30</inkml:trace>
+</inkml:ink>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1" descr="연간매출액&#10;">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2238375" y="123825"/>
-          <a:ext cx="2228850" cy="295275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF00FF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="808080"/>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t>연 간 매 출 액</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69E8846-2C6E-495C-8E8B-177C99221076}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8743950" y="1228725"/>
-          <a:ext cx="5924550" cy="2276475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-07-17T12:47:01.390"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 107,'76'-23,"2"4,0 3,97-8,-168 23,362-23,471 25,-792-1</inkml:trace>
+</inkml:ink>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B718207-0D82-4716-9739-D79C65415BD8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="5981700" cy="1514475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-07-17T12:47:05.011"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">86 0,'2'0,"0"1,0-1,0 1,0 0,0-1,0 1,0 0,-1 0,1 0,0 1,0-1,-1 0,1 0,-1 1,1-1,-1 1,0 0,3 3,19 36,-21-37,15 37,-2 2,-2 0,12 71,-15-66,10 80,-15-85,2-1,15 51,-14-54,-1 1,-2-1,-1 1,-3 0,-5 70,1-3,3-50,-6 235,1-223,-3-1,-22 85,-21 46,-112 484,149-599,3 1,1 91,17 171,-4-287,2 0,2-1,4 1,31 102,-27-121,23 69,59 117,-79-193,1-1,1-1,2 0,1-2,1-1,2-1,44 38,16 5,132 80,-213-148,-1 0,1-1,0 0,-1 0,1 0,0 0,0-1,6 1,5-2</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-07-17T12:47:11.188"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 60,'37'-2,"0"-1,-1-2,52-14,-40 8,16 2,0 2,0 3,110 8,-37-1,744-3,-852 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2933,16 +4148,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
@@ -3003,8 +4218,8 @@
     <row r="5" spans="1:8" outlineLevel="2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="96" t="s">
-        <v>112</v>
+      <c r="C5" s="87" t="s">
+        <v>111</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
@@ -3024,8 +4239,8 @@
     <row r="6" spans="1:8" outlineLevel="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="96" t="s">
-        <v>120</v>
+      <c r="C6" s="87" t="s">
+        <v>115</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
@@ -3105,8 +4320,8 @@
     <row r="9" spans="1:8" outlineLevel="2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="96" t="s">
-        <v>113</v>
+      <c r="C9" s="87" t="s">
+        <v>112</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
@@ -3126,8 +4341,8 @@
     <row r="10" spans="1:8" outlineLevel="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="96" t="s">
-        <v>121</v>
+      <c r="C10" s="87" t="s">
+        <v>116</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
@@ -3207,8 +4422,8 @@
     <row r="13" spans="1:8" outlineLevel="2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="96" t="s">
-        <v>111</v>
+      <c r="C13" s="87" t="s">
+        <v>110</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
@@ -3228,8 +4443,8 @@
     <row r="14" spans="1:8" outlineLevel="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="96" t="s">
-        <v>119</v>
+      <c r="C14" s="87" t="s">
+        <v>114</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
@@ -3339,8 +4554,8 @@
     <row r="18" spans="1:8" outlineLevel="2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="96" t="s">
-        <v>114</v>
+      <c r="C18" s="87" t="s">
+        <v>113</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
@@ -3360,8 +4575,8 @@
     <row r="19" spans="1:8" outlineLevel="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="96" t="s">
-        <v>122</v>
+      <c r="C19" s="87" t="s">
+        <v>117</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
@@ -3469,106 +4684,106 @@
       </c>
     </row>
     <row r="23" spans="1:8" outlineLevel="2">
-      <c r="A23" s="93"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="94"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95">
+      <c r="A23" s="84"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="85"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86">
         <f>SUBTOTAL(9,F20:F22)</f>
         <v>4950000</v>
       </c>
-      <c r="G23" s="95">
+      <c r="G23" s="86">
         <f>SUBTOTAL(9,G20:G22)</f>
         <v>594000</v>
       </c>
-      <c r="H23" s="95">
+      <c r="H23" s="86">
         <f>SUBTOTAL(9,H20:H22)</f>
         <v>4356000</v>
       </c>
     </row>
     <row r="24" spans="1:8" outlineLevel="1">
-      <c r="A24" s="93"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="97" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="94"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95">
+      <c r="A24" s="84"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="85"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86">
         <f>SUBTOTAL(1,F20:F22)</f>
         <v>1650000</v>
       </c>
-      <c r="G24" s="95">
+      <c r="G24" s="86">
         <f>SUBTOTAL(1,G20:G22)</f>
         <v>198000</v>
       </c>
-      <c r="H24" s="95">
+      <c r="H24" s="86">
         <f>SUBTOTAL(1,H20:H22)</f>
         <v>1452000</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="93"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="97" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" s="94"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95">
+      <c r="A25" s="84"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="85"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86">
         <f>SUBTOTAL(9,F4:F22)</f>
         <v>43938000</v>
       </c>
-      <c r="G25" s="95">
+      <c r="G25" s="86">
         <f>SUBTOTAL(9,G4:G22)</f>
         <v>5272560</v>
       </c>
-      <c r="H25" s="95">
+      <c r="H25" s="86">
         <f>SUBTOTAL(9,H4:H22)</f>
         <v>38665440</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="93"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="97" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="94"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95">
+      <c r="A26" s="84"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="85"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86">
         <f>SUBTOTAL(1,F4:F22)</f>
         <v>3994363.6363636362</v>
       </c>
-      <c r="G26" s="95">
+      <c r="G26" s="86">
         <f>SUBTOTAL(1,G4:G22)</f>
         <v>479323.63636363635</v>
       </c>
-      <c r="H26" s="95">
+      <c r="H26" s="86">
         <f>SUBTOTAL(1,H4:H22)</f>
         <v>3515040</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="93"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="97" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="94"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95">
+      <c r="A27" s="84"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="85"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86">
         <f>SUBTOTAL(9,F4:F22)</f>
         <v>43938000</v>
       </c>
-      <c r="G27" s="95">
+      <c r="G27" s="86">
         <f>SUBTOTAL(9,G4:G22)</f>
         <v>5272560</v>
       </c>
-      <c r="H27" s="95">
+      <c r="H27" s="86">
         <f>SUBTOTAL(9,H4:H22)</f>
         <v>38665440</v>
       </c>
@@ -3591,1760 +4806,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr codeName="Sheet9">
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr codeName="Sheet10">
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70CA5D4-4E56-431E-AB60-835C62F97F5A}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:K26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="20.25">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="7">
-        <v>38729</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="8">
-        <v>37</v>
-      </c>
-      <c r="E4" s="1">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="7">
-        <v>38729</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="8">
-        <v>70</v>
-      </c>
-      <c r="E5" s="1">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="7">
-        <v>38729</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="8">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="7">
-        <v>38729</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="8">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="7">
-        <v>38730</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="8">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="7">
-        <v>38730</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="8">
-        <v>67</v>
-      </c>
-      <c r="E9" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="7">
-        <v>38730</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="8">
-        <v>83</v>
-      </c>
-      <c r="E10" s="1">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="7">
-        <v>38730</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="8">
-        <v>36</v>
-      </c>
-      <c r="E11" s="1">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="7">
-        <v>38731</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="8">
-        <v>13</v>
-      </c>
-      <c r="E12" s="1">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="7">
-        <v>38731</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="8">
-        <v>97</v>
-      </c>
-      <c r="E13" s="1">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="7">
-        <v>38731</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="8">
-        <v>91</v>
-      </c>
-      <c r="E14" s="1">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7">
-        <v>38731</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="8">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="7">
-        <v>38732</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="8">
-        <v>16</v>
-      </c>
-      <c r="E16" s="1">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="7">
-        <v>38733</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="8">
-        <v>94</v>
-      </c>
-      <c r="E17" s="1">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="7">
-        <v>38733</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="8">
-        <v>44</v>
-      </c>
-      <c r="E18" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="7">
-        <v>38733</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="8">
-        <v>51</v>
-      </c>
-      <c r="E19" s="1">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="7">
-        <v>38734</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="8">
-        <v>38</v>
-      </c>
-      <c r="E20" s="1">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="K26" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet5">
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:K26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="20.25">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="7">
-        <v>38729</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="8">
-        <v>37</v>
-      </c>
-      <c r="E4" s="1">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="7">
-        <v>38729</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="8">
-        <v>70</v>
-      </c>
-      <c r="E5" s="1">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="7">
-        <v>38729</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="8">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="7">
-        <v>38729</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="8">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="7">
-        <v>38730</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="8">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="7">
-        <v>38730</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="8">
-        <v>67</v>
-      </c>
-      <c r="E9" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="7">
-        <v>38730</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="8">
-        <v>83</v>
-      </c>
-      <c r="E10" s="1">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="7">
-        <v>38730</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="8">
-        <v>36</v>
-      </c>
-      <c r="E11" s="1">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="7">
-        <v>38731</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="8">
-        <v>13</v>
-      </c>
-      <c r="E12" s="1">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="7">
-        <v>38731</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="8">
-        <v>97</v>
-      </c>
-      <c r="E13" s="1">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="7">
-        <v>38731</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="8">
-        <v>91</v>
-      </c>
-      <c r="E14" s="1">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7">
-        <v>38731</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="8">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="7">
-        <v>38732</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="8">
-        <v>16</v>
-      </c>
-      <c r="E16" s="1">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="7">
-        <v>38733</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="8">
-        <v>94</v>
-      </c>
-      <c r="E17" s="1">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="7">
-        <v>38733</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="8">
-        <v>44</v>
-      </c>
-      <c r="E18" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="7">
-        <v>38733</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="8">
-        <v>51</v>
-      </c>
-      <c r="E19" s="1">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="7">
-        <v>38734</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="8">
-        <v>38</v>
-      </c>
-      <c r="E20" s="1">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="K26" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet1">
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="B2:J20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
-    <col min="2" max="4" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:10">
-      <c r="B2" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="G2" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="11">
-        <v>9</v>
-      </c>
-      <c r="D4" s="11">
-        <v>15</v>
-      </c>
-      <c r="E4" s="11">
-        <v>14250</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="11">
-        <v>13</v>
-      </c>
-      <c r="I4" s="11">
-        <v>10</v>
-      </c>
-      <c r="J4" s="11">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="11">
-        <v>5</v>
-      </c>
-      <c r="D5" s="11">
-        <v>10</v>
-      </c>
-      <c r="E5" s="11">
-        <v>14000</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="11">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11">
-        <v>7</v>
-      </c>
-      <c r="J5" s="11">
-        <v>9800</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="11">
-        <v>11</v>
-      </c>
-      <c r="D6" s="11">
-        <v>15</v>
-      </c>
-      <c r="E6" s="11">
-        <v>8400</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="11">
-        <v>23</v>
-      </c>
-      <c r="I6" s="11">
-        <v>25</v>
-      </c>
-      <c r="J6" s="11">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="11">
-        <v>14</v>
-      </c>
-      <c r="D7" s="11">
-        <v>14</v>
-      </c>
-      <c r="E7" s="11">
-        <v>4760</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="11">
-        <v>19</v>
-      </c>
-      <c r="I7" s="11">
-        <v>20</v>
-      </c>
-      <c r="J7" s="11">
-        <v>6800</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="11">
-        <v>15</v>
-      </c>
-      <c r="D8" s="11">
-        <v>20</v>
-      </c>
-      <c r="E8" s="11">
-        <v>19000</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="11">
-        <v>13</v>
-      </c>
-      <c r="I8" s="11">
-        <v>15</v>
-      </c>
-      <c r="J8" s="11">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="11">
-        <v>17</v>
-      </c>
-      <c r="D9" s="11">
-        <v>23</v>
-      </c>
-      <c r="E9" s="11">
-        <v>21850</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="11">
-        <v>8</v>
-      </c>
-      <c r="I9" s="11">
-        <v>10</v>
-      </c>
-      <c r="J9" s="11">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="11">
-        <v>12</v>
-      </c>
-      <c r="D10" s="11">
-        <v>10</v>
-      </c>
-      <c r="E10" s="11">
-        <v>3400</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="11">
-        <v>14</v>
-      </c>
-      <c r="I10" s="11">
-        <v>15</v>
-      </c>
-      <c r="J10" s="11">
-        <v>14250</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="11">
-        <v>19</v>
-      </c>
-      <c r="D11" s="11">
-        <v>15</v>
-      </c>
-      <c r="E11" s="11">
-        <v>8400</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="11">
-        <v>9</v>
-      </c>
-      <c r="I11" s="11">
-        <v>15</v>
-      </c>
-      <c r="J11" s="11">
-        <v>14250</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="11">
-        <v>20</v>
-      </c>
-      <c r="D12" s="11">
-        <v>15</v>
-      </c>
-      <c r="E12" s="11">
-        <v>21000</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="11">
-        <v>12</v>
-      </c>
-      <c r="I12" s="11">
-        <v>15</v>
-      </c>
-      <c r="J12" s="11">
-        <v>5100</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="11">
-        <v>21</v>
-      </c>
-      <c r="D13" s="11">
-        <v>16</v>
-      </c>
-      <c r="E13" s="11">
-        <v>8960</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="11">
-        <v>19</v>
-      </c>
-      <c r="I13" s="11">
-        <v>25</v>
-      </c>
-      <c r="J13" s="11">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="17.25" thickBot="1">
-      <c r="G14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="11">
-        <v>24</v>
-      </c>
-      <c r="I14" s="11">
-        <v>30</v>
-      </c>
-      <c r="J14" s="11">
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="17.25" thickBot="1">
-      <c r="B15" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="88"/>
-      <c r="G15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="11">
-        <v>21</v>
-      </c>
-      <c r="I15" s="11">
-        <v>29</v>
-      </c>
-      <c r="J15" s="11">
-        <v>16240</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="17.25" thickBot="1">
-      <c r="B16" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-    </row>
-    <row r="20" spans="2:5" ht="17.25" thickBot="1">
-      <c r="B20" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-    </row>
-  </sheetData>
-  <dataConsolidate/>
-  <mergeCells count="3">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B15:E15"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet2">
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="B2:J27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="3.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:10">
-      <c r="B2" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="G2" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="11">
-        <v>12</v>
-      </c>
-      <c r="D4" s="11">
-        <v>13</v>
-      </c>
-      <c r="E4" s="11">
-        <v>1800000</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="11">
-        <v>18</v>
-      </c>
-      <c r="I4" s="11">
-        <v>10</v>
-      </c>
-      <c r="J4" s="11">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="11">
-        <v>5</v>
-      </c>
-      <c r="D5" s="11">
-        <v>5</v>
-      </c>
-      <c r="E5" s="11">
-        <v>7500000</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="11">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11">
-        <v>4</v>
-      </c>
-      <c r="J5" s="11">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="11">
-        <v>11</v>
-      </c>
-      <c r="D6" s="11">
-        <v>8</v>
-      </c>
-      <c r="E6" s="11">
-        <v>6400000</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="11">
-        <v>23</v>
-      </c>
-      <c r="I6" s="11">
-        <v>8</v>
-      </c>
-      <c r="J6" s="11">
-        <v>6400000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="11">
-        <v>14</v>
-      </c>
-      <c r="D7" s="11">
-        <v>14</v>
-      </c>
-      <c r="E7" s="11">
-        <v>4900000</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="11">
-        <v>19</v>
-      </c>
-      <c r="I7" s="11">
-        <v>15</v>
-      </c>
-      <c r="J7" s="11">
-        <v>5250000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="11">
-        <v>18</v>
-      </c>
-      <c r="D8" s="11">
-        <v>18</v>
-      </c>
-      <c r="E8" s="11">
-        <v>2400000</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="11">
-        <v>13</v>
-      </c>
-      <c r="I8" s="11">
-        <v>6</v>
-      </c>
-      <c r="J8" s="11">
-        <v>9000000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="11">
-        <v>24</v>
-      </c>
-      <c r="D9" s="11">
-        <v>23</v>
-      </c>
-      <c r="E9" s="11">
-        <v>2760000</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="11">
-        <v>8</v>
-      </c>
-      <c r="I9" s="11">
-        <v>6</v>
-      </c>
-      <c r="J9" s="11">
-        <v>720000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="11">
-        <v>12</v>
-      </c>
-      <c r="D10" s="11">
-        <v>10</v>
-      </c>
-      <c r="E10" s="11">
-        <v>3500000</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="11">
-        <v>14</v>
-      </c>
-      <c r="I10" s="11">
-        <v>4</v>
-      </c>
-      <c r="J10" s="11">
-        <v>4800000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="11">
-        <v>19</v>
-      </c>
-      <c r="D11" s="11">
-        <v>4</v>
-      </c>
-      <c r="E11" s="11">
-        <v>3200000</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="11">
-        <v>10</v>
-      </c>
-      <c r="I11" s="11">
-        <v>8</v>
-      </c>
-      <c r="J11" s="11">
-        <v>720000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="11">
-        <v>20</v>
-      </c>
-      <c r="D12" s="11">
-        <v>6</v>
-      </c>
-      <c r="E12" s="11">
-        <v>9000000</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="11">
-        <v>12</v>
-      </c>
-      <c r="I12" s="11">
-        <v>12</v>
-      </c>
-      <c r="J12" s="11">
-        <v>4200000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="11">
-        <v>21</v>
-      </c>
-      <c r="D13" s="11">
-        <v>3</v>
-      </c>
-      <c r="E13" s="11">
-        <v>2400000</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="11">
-        <v>19</v>
-      </c>
-      <c r="I13" s="11">
-        <v>8</v>
-      </c>
-      <c r="J13" s="11">
-        <v>6400000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="11">
-        <v>21</v>
-      </c>
-      <c r="D14" s="11">
-        <v>11</v>
-      </c>
-      <c r="E14" s="11">
-        <v>10800000</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="11">
-        <v>24</v>
-      </c>
-      <c r="I14" s="11">
-        <v>6</v>
-      </c>
-      <c r="J14" s="11">
-        <v>9000000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="G15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="11">
-        <v>21</v>
-      </c>
-      <c r="I15" s="11">
-        <v>11</v>
-      </c>
-      <c r="J15" s="11">
-        <v>8800000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="17.25" thickBot="1">
-      <c r="G16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="11">
-        <v>24</v>
-      </c>
-      <c r="I16" s="11">
-        <v>6</v>
-      </c>
-      <c r="J16" s="11">
-        <v>5200000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="17.25" thickBot="1">
-      <c r="B17" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="88"/>
-    </row>
-    <row r="18" spans="2:10" ht="17.25" thickBot="1">
-      <c r="B18" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-    </row>
-    <row r="22" spans="2:10" ht="17.25" thickBot="1">
-      <c r="B22" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-    </row>
-  </sheetData>
-  <dataConsolidate/>
-  <mergeCells count="3">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B17:E17"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr codeName="Sheet3">
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="89"/>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" thickBot="1"/>
-    <row r="3" spans="1:2">
-      <c r="A3" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="30">
-        <v>1400000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="32">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="32">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="32">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A7" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="34">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A9" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="34">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.25" thickBot="1"/>
-    <row r="11" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A11" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="36">
-        <f>SUM(B3:B7,B9)</f>
-        <v>2430000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17.25" thickBot="1"/>
-    <row r="13" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A13" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="36">
-        <f>B11*12</f>
-        <v>29160000</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6">
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5359,43 +4828,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A1" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
+      <c r="A1" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:7" ht="17.25" thickBot="1">
       <c r="A3" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="C3" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="D3" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="E3" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="F3" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="G3" s="42" t="s">
         <v>79</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="44">
         <v>40</v>
@@ -5420,10 +4889,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="50">
-        <v>40</v>
+        <v>85.000000000000028</v>
       </c>
       <c r="C5" s="2">
         <v>45</v>
@@ -5436,16 +4905,16 @@
       </c>
       <c r="F5" s="47">
         <f>SUM(B5:E5)</f>
-        <v>180</v>
+        <v>225.00000000000003</v>
       </c>
       <c r="G5" s="48">
         <f>AVERAGE(B5:E5)</f>
-        <v>45</v>
+        <v>56.250000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="50">
         <v>50</v>
@@ -5470,7 +4939,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="53">
         <v>80</v>
@@ -5495,11 +4964,11 @@
     </row>
     <row r="8" spans="1:7" ht="17.25" thickBot="1">
       <c r="A8" s="56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="57">
         <f t="shared" ref="B8:G8" si="0">AVERAGE(B4:B7)</f>
-        <v>52.5</v>
+        <v>63.750000000000007</v>
       </c>
       <c r="C8" s="58">
         <f t="shared" si="0"/>
@@ -5515,11 +4984,11 @@
       </c>
       <c r="F8" s="60">
         <f t="shared" si="0"/>
-        <v>228.75</v>
+        <v>240</v>
       </c>
       <c r="G8" s="61">
         <f t="shared" si="0"/>
-        <v>57.1875</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -5534,15 +5003,278 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A4C615-5FEA-40FF-8E5A-E7CEC3DF06BE}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:R30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23:R30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A1" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" thickBot="1"/>
+    <row r="3" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A3" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="44">
+        <v>40</v>
+      </c>
+      <c r="C4" s="45">
+        <v>60</v>
+      </c>
+      <c r="D4" s="45">
+        <v>60</v>
+      </c>
+      <c r="E4" s="46">
+        <v>80</v>
+      </c>
+      <c r="F4" s="47">
+        <f>SUM(B4:E4)</f>
+        <v>240</v>
+      </c>
+      <c r="G4" s="48">
+        <f>AVERAGE(B4:E4)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="50">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2">
+        <v>55</v>
+      </c>
+      <c r="E5" s="51">
+        <v>40</v>
+      </c>
+      <c r="F5" s="47">
+        <f>SUM(B5:E5)</f>
+        <v>180</v>
+      </c>
+      <c r="G5" s="48">
+        <f>AVERAGE(B5:E5)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="50">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2">
+        <v>50</v>
+      </c>
+      <c r="E6" s="51">
+        <v>60</v>
+      </c>
+      <c r="F6" s="47">
+        <f>SUM(B6:E6)</f>
+        <v>220</v>
+      </c>
+      <c r="G6" s="48">
+        <f>AVERAGE(B6:E6)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="53">
+        <v>80</v>
+      </c>
+      <c r="C7" s="54">
+        <v>60</v>
+      </c>
+      <c r="D7" s="54">
+        <v>70</v>
+      </c>
+      <c r="E7" s="55">
+        <v>65</v>
+      </c>
+      <c r="F7" s="47">
+        <f>SUM(B7:E7)</f>
+        <v>275</v>
+      </c>
+      <c r="G7" s="48">
+        <f>AVERAGE(B7:E7)</f>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A8" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="57">
+        <f t="shared" ref="B8:G8" si="0">AVERAGE(B4:B7)</f>
+        <v>52.5</v>
+      </c>
+      <c r="C8" s="58">
+        <f t="shared" si="0"/>
+        <v>56.25</v>
+      </c>
+      <c r="D8" s="58">
+        <f t="shared" si="0"/>
+        <v>58.75</v>
+      </c>
+      <c r="E8" s="59">
+        <f t="shared" si="0"/>
+        <v>61.25</v>
+      </c>
+      <c r="F8" s="60">
+        <f t="shared" si="0"/>
+        <v>228.75</v>
+      </c>
+      <c r="G8" s="61">
+        <f t="shared" si="0"/>
+        <v>57.1875</v>
+      </c>
+    </row>
+    <row r="23" spans="12:18" ht="20.25">
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="96"/>
+    </row>
+    <row r="24" spans="12:18" ht="17.25" thickBot="1"/>
+    <row r="25" spans="12:18" ht="17.25" thickBot="1">
+      <c r="L25" s="37"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="42"/>
+    </row>
+    <row r="26" spans="12:18">
+      <c r="L26" s="43"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="48"/>
+    </row>
+    <row r="27" spans="12:18">
+      <c r="L27" s="49"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="48"/>
+    </row>
+    <row r="28" spans="12:18">
+      <c r="L28" s="49"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="48"/>
+    </row>
+    <row r="29" spans="12:18">
+      <c r="L29" s="52"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="48"/>
+    </row>
+    <row r="30" spans="12:18" ht="17.25" thickBot="1">
+      <c r="L30" s="56"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="L23:R23"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7">
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A3:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5562,28 +5294,28 @@
     <row r="3" spans="1:8" ht="17.25" thickBot="1"/>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="C4" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="D4" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="E4" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="F4" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="G4" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="H4" s="63" t="s">
         <v>92</v>
-      </c>
-      <c r="H4" s="63" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5591,7 +5323,7 @@
         <v>2657</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="65">
         <v>2600</v>
@@ -5620,7 +5352,7 @@
         <v>4284</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="71">
         <v>3500</v>
@@ -5649,7 +5381,7 @@
         <v>3541</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="71">
         <v>4200</v>
@@ -5678,7 +5410,7 @@
         <v>2875</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="71">
         <v>1800</v>
@@ -5707,7 +5439,7 @@
         <v>3016</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="71">
         <v>2200</v>
@@ -5736,7 +5468,7 @@
         <v>4250</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="71">
         <v>5400</v>
@@ -5765,7 +5497,7 @@
         <v>2586</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="71">
         <v>2800</v>
@@ -5794,7 +5526,7 @@
         <v>1462</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="71">
         <v>3600</v>
@@ -5823,7 +5555,7 @@
         <v>2253</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="71">
         <v>4500</v>
@@ -5852,7 +5584,7 @@
         <v>2028</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" s="71">
         <v>3200</v>
@@ -5878,7 +5610,7 @@
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1">
       <c r="G15" s="74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H15" s="75">
         <f>SUM(H5:H14)</f>
@@ -5893,7 +5625,366 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE31B889-3D75-4434-9537-4E2616397EEF}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A3:H15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="11.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" ht="17.25" thickBot="1"/>
+    <row r="4" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A4" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="64">
+        <v>2657</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="65">
+        <v>2600</v>
+      </c>
+      <c r="D5" s="65">
+        <v>240</v>
+      </c>
+      <c r="E5" s="66">
+        <v>19</v>
+      </c>
+      <c r="F5" s="67">
+        <f>C5*D5</f>
+        <v>624000</v>
+      </c>
+      <c r="G5" s="68">
+        <f>H5/F5</f>
+        <v>0.92083333333333328</v>
+      </c>
+      <c r="H5" s="69">
+        <f>F5-(C5*E5)</f>
+        <v>574600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="70">
+        <v>4284</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="71">
+        <v>3500</v>
+      </c>
+      <c r="D6" s="71">
+        <v>154</v>
+      </c>
+      <c r="E6" s="71">
+        <v>31</v>
+      </c>
+      <c r="F6" s="67">
+        <f t="shared" ref="F6:F14" si="0">C6*D6</f>
+        <v>539000</v>
+      </c>
+      <c r="G6" s="68">
+        <f>H6/F6</f>
+        <v>0.79870129870129869</v>
+      </c>
+      <c r="H6" s="67">
+        <f>F6-(C6*E6)</f>
+        <v>430500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="70">
+        <v>3541</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="71">
+        <v>4200</v>
+      </c>
+      <c r="D7" s="71">
+        <v>209</v>
+      </c>
+      <c r="E7" s="71">
+        <v>22</v>
+      </c>
+      <c r="F7" s="67">
+        <f t="shared" si="0"/>
+        <v>877800</v>
+      </c>
+      <c r="G7" s="68">
+        <f t="shared" ref="G7:G14" si="1">H7/F7</f>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="H7" s="67">
+        <f t="shared" ref="H7:H14" si="2">F7-(C7*E7)</f>
+        <v>785400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="70">
+        <v>2875</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="71">
+        <v>1800</v>
+      </c>
+      <c r="D8" s="71">
+        <v>452</v>
+      </c>
+      <c r="E8" s="71">
+        <v>26</v>
+      </c>
+      <c r="F8" s="67">
+        <f t="shared" si="0"/>
+        <v>813600</v>
+      </c>
+      <c r="G8" s="68">
+        <f t="shared" si="1"/>
+        <v>0.94247787610619471</v>
+      </c>
+      <c r="H8" s="67">
+        <f t="shared" si="2"/>
+        <v>766800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="70">
+        <v>3016</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="71">
+        <v>2200</v>
+      </c>
+      <c r="D9" s="71">
+        <v>321</v>
+      </c>
+      <c r="E9" s="71">
+        <v>13</v>
+      </c>
+      <c r="F9" s="67">
+        <f t="shared" si="0"/>
+        <v>706200</v>
+      </c>
+      <c r="G9" s="68">
+        <f t="shared" si="1"/>
+        <v>0.95950155763239875</v>
+      </c>
+      <c r="H9" s="67">
+        <f t="shared" si="2"/>
+        <v>677600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="70">
+        <v>4250</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="71">
+        <v>5400</v>
+      </c>
+      <c r="D10" s="71">
+        <v>120</v>
+      </c>
+      <c r="E10" s="71">
+        <v>48</v>
+      </c>
+      <c r="F10" s="67">
+        <f t="shared" si="0"/>
+        <v>648000</v>
+      </c>
+      <c r="G10" s="68">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="H10" s="67">
+        <f t="shared" si="2"/>
+        <v>388800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="70">
+        <v>2586</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="71">
+        <v>2800</v>
+      </c>
+      <c r="D11" s="71">
+        <v>410</v>
+      </c>
+      <c r="E11" s="71">
+        <v>35</v>
+      </c>
+      <c r="F11" s="67">
+        <f t="shared" si="0"/>
+        <v>1148000</v>
+      </c>
+      <c r="G11" s="68">
+        <f t="shared" si="1"/>
+        <v>0.91463414634146345</v>
+      </c>
+      <c r="H11" s="67">
+        <f t="shared" si="2"/>
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="70">
+        <v>1462</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="71">
+        <v>3600</v>
+      </c>
+      <c r="D12" s="71">
+        <v>215</v>
+      </c>
+      <c r="E12" s="71">
+        <v>106</v>
+      </c>
+      <c r="F12" s="67">
+        <f t="shared" si="0"/>
+        <v>774000</v>
+      </c>
+      <c r="G12" s="68">
+        <f t="shared" si="1"/>
+        <v>0.50697674418604655</v>
+      </c>
+      <c r="H12" s="67">
+        <f t="shared" si="2"/>
+        <v>392400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="70">
+        <v>2253</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="71">
+        <v>4500</v>
+      </c>
+      <c r="D13" s="71">
+        <v>325</v>
+      </c>
+      <c r="E13" s="71">
+        <v>87</v>
+      </c>
+      <c r="F13" s="67">
+        <f t="shared" si="0"/>
+        <v>1462500</v>
+      </c>
+      <c r="G13" s="68">
+        <f t="shared" si="1"/>
+        <v>0.73230769230769233</v>
+      </c>
+      <c r="H13" s="67">
+        <f t="shared" si="2"/>
+        <v>1071000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A14" s="70">
+        <v>2028</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="71">
+        <v>3200</v>
+      </c>
+      <c r="D14" s="71">
+        <v>248</v>
+      </c>
+      <c r="E14" s="71">
+        <v>74</v>
+      </c>
+      <c r="F14" s="67">
+        <f t="shared" si="0"/>
+        <v>793600</v>
+      </c>
+      <c r="G14" s="72">
+        <f t="shared" si="1"/>
+        <v>0.70161290322580649</v>
+      </c>
+      <c r="H14" s="73">
+        <f t="shared" si="2"/>
+        <v>556800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17.25" thickBot="1">
+      <c r="G15" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="75">
+        <f>SUM(H5:H14)</f>
+        <v>6693900</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FFFF0000"/>
@@ -5922,10 +6013,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="76"/>
-      <c r="B2" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="92"/>
+      <c r="B2" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="98"/>
       <c r="D2" s="76"/>
     </row>
     <row r="3" spans="1:4">
@@ -5937,7 +6028,7 @@
     <row r="4" spans="1:4">
       <c r="A4" s="76"/>
       <c r="B4" s="78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="79">
         <v>250000</v>
@@ -5947,7 +6038,7 @@
     <row r="5" spans="1:4">
       <c r="A5" s="76"/>
       <c r="B5" s="78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="80">
         <v>0.1075</v>
@@ -5957,7 +6048,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="76"/>
       <c r="B6" s="78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="81">
         <v>2</v>
@@ -5967,7 +6058,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="76"/>
       <c r="B7" s="78" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="82">
         <f>FV($C$5/12,$C$6*12,-$C$4,0)</f>
@@ -5990,4 +6081,3009 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet9">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr codeName="Sheet10">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet5">
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S51" sqref="S51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20.25">
+      <c r="A1" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" outlineLevel="2">
+      <c r="A4" s="7">
+        <v>38729</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" outlineLevel="2">
+      <c r="A5" s="7">
+        <v>38730</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" outlineLevel="2">
+      <c r="A6" s="7">
+        <v>38731</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="8">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" outlineLevel="2">
+      <c r="A7" s="7">
+        <v>38732</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="8">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" outlineLevel="2">
+      <c r="A8" s="7">
+        <v>38733</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8">
+        <v>94</v>
+      </c>
+      <c r="E8" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" outlineLevel="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8">
+        <f>SUBTOTAL(4,D4:D8)</f>
+        <v>94</v>
+      </c>
+      <c r="E9" s="1">
+        <f>SUBTOTAL(4,E4:E8)</f>
+        <v>914</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" outlineLevel="2">
+      <c r="A10" s="7">
+        <v>38729</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8">
+        <v>70</v>
+      </c>
+      <c r="E10" s="1">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" outlineLevel="2">
+      <c r="A11" s="7">
+        <v>38730</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="8">
+        <v>67</v>
+      </c>
+      <c r="E11" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" outlineLevel="2">
+      <c r="A12" s="7">
+        <v>38731</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="8">
+        <v>97</v>
+      </c>
+      <c r="E12" s="1">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" outlineLevel="2">
+      <c r="A13" s="7">
+        <v>38731</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="8">
+        <v>91</v>
+      </c>
+      <c r="E13" s="1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" outlineLevel="2">
+      <c r="A14" s="7">
+        <v>38734</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="8">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" outlineLevel="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8">
+        <f>SUBTOTAL(4,D10:D14)</f>
+        <v>97</v>
+      </c>
+      <c r="E15" s="1">
+        <f>SUBTOTAL(4,E10:E14)</f>
+        <v>874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" outlineLevel="2">
+      <c r="A16" s="7">
+        <v>38729</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="8">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" outlineLevel="2">
+      <c r="A17" s="7">
+        <v>38729</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="8">
+        <v>28</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" outlineLevel="2">
+      <c r="A18" s="7">
+        <v>38730</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="8">
+        <v>83</v>
+      </c>
+      <c r="E18" s="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" outlineLevel="2">
+      <c r="A19" s="7">
+        <v>38730</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="8">
+        <v>36</v>
+      </c>
+      <c r="E19" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" outlineLevel="2">
+      <c r="A20" s="7">
+        <v>38731</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="8">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" outlineLevel="2">
+      <c r="A21" s="7">
+        <v>38733</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="8">
+        <v>44</v>
+      </c>
+      <c r="E21" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" outlineLevel="2">
+      <c r="A22" s="7">
+        <v>38733</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="8">
+        <v>51</v>
+      </c>
+      <c r="E22" s="1">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" outlineLevel="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="99" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8">
+        <f>SUBTOTAL(4,D16:D22)</f>
+        <v>83</v>
+      </c>
+      <c r="E23" s="1">
+        <f>SUBTOTAL(4,E16:E22)</f>
+        <v>908</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="7"/>
+      <c r="B24" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8">
+        <f>SUBTOTAL(4,D4:D22)</f>
+        <v>97</v>
+      </c>
+      <c r="E24" s="1">
+        <f>SUBTOTAL(4,E4:E22)</f>
+        <v>914</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="7"/>
+      <c r="B25" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8">
+        <f>SUBTOTAL(5,D4:D22)</f>
+        <v>5</v>
+      </c>
+      <c r="E25" s="1">
+        <f>SUBTOTAL(5,E4:E22)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="K31" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:F22" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F46">
+      <sortCondition ref="B3:B22"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70CA5D4-4E56-431E-AB60-835C62F97F5A}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20.25">
+      <c r="A1" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" outlineLevel="3">
+      <c r="A4" s="7">
+        <v>38729</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" outlineLevel="3">
+      <c r="A5" s="7">
+        <v>38730</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" outlineLevel="3">
+      <c r="A6" s="7">
+        <v>38731</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="8">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" outlineLevel="3">
+      <c r="A7" s="7">
+        <v>38732</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="8">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" outlineLevel="3">
+      <c r="A8" s="7">
+        <v>38733</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8">
+        <v>94</v>
+      </c>
+      <c r="E8" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" outlineLevel="2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="99" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8">
+        <f>SUBTOTAL(5,D4:D8)</f>
+        <v>13</v>
+      </c>
+      <c r="E9" s="1">
+        <f>SUBTOTAL(5,E4:E8)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" outlineLevel="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
+        <f>SUBTOTAL(4,D4:D8)</f>
+        <v>94</v>
+      </c>
+      <c r="E10" s="1">
+        <f>SUBTOTAL(4,E4:E8)</f>
+        <v>914</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" outlineLevel="3">
+      <c r="A11" s="7">
+        <v>38729</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8">
+        <v>70</v>
+      </c>
+      <c r="E11" s="1">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" outlineLevel="3">
+      <c r="A12" s="7">
+        <v>38730</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="8">
+        <v>67</v>
+      </c>
+      <c r="E12" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" outlineLevel="3">
+      <c r="A13" s="7">
+        <v>38731</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="8">
+        <v>97</v>
+      </c>
+      <c r="E13" s="1">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" outlineLevel="3">
+      <c r="A14" s="7">
+        <v>38731</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="8">
+        <v>91</v>
+      </c>
+      <c r="E14" s="1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" outlineLevel="3">
+      <c r="A15" s="7">
+        <v>38734</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="8">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" outlineLevel="2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="99" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8">
+        <f>SUBTOTAL(5,D11:D15)</f>
+        <v>38</v>
+      </c>
+      <c r="E16" s="1">
+        <f>SUBTOTAL(5,E11:E15)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" outlineLevel="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8">
+        <f>SUBTOTAL(4,D11:D15)</f>
+        <v>97</v>
+      </c>
+      <c r="E17" s="1">
+        <f>SUBTOTAL(4,E11:E15)</f>
+        <v>874</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" outlineLevel="3">
+      <c r="A18" s="7">
+        <v>38729</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="8">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" outlineLevel="3">
+      <c r="A19" s="7">
+        <v>38729</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="8">
+        <v>28</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" outlineLevel="3">
+      <c r="A20" s="7">
+        <v>38730</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="8">
+        <v>83</v>
+      </c>
+      <c r="E20" s="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" outlineLevel="3">
+      <c r="A21" s="7">
+        <v>38730</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="8">
+        <v>36</v>
+      </c>
+      <c r="E21" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" outlineLevel="3">
+      <c r="A22" s="7">
+        <v>38731</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="8">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" outlineLevel="3">
+      <c r="A23" s="7">
+        <v>38733</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="8">
+        <v>44</v>
+      </c>
+      <c r="E23" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" outlineLevel="3">
+      <c r="A24" s="7">
+        <v>38733</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="8">
+        <v>51</v>
+      </c>
+      <c r="E24" s="1">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" outlineLevel="2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8">
+        <f>SUBTOTAL(5,D18:D24)</f>
+        <v>5</v>
+      </c>
+      <c r="E25" s="1">
+        <f>SUBTOTAL(5,E18:E24)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" outlineLevel="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="99" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8">
+        <f>SUBTOTAL(4,D18:D24)</f>
+        <v>83</v>
+      </c>
+      <c r="E26" s="1">
+        <f>SUBTOTAL(4,E18:E24)</f>
+        <v>908</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="7"/>
+      <c r="B27" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8">
+        <f>SUBTOTAL(5,D4:D24)</f>
+        <v>5</v>
+      </c>
+      <c r="E27" s="1">
+        <f>SUBTOTAL(5,E4:E24)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="7"/>
+      <c r="B28" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8">
+        <f>SUBTOTAL(4,D4:D24)</f>
+        <v>97</v>
+      </c>
+      <c r="E28" s="1">
+        <f>SUBTOTAL(4,E4:E24)</f>
+        <v>914</v>
+      </c>
+    </row>
+    <row r="34" spans="11:11">
+      <c r="K34" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F24">
+    <sortCondition ref="B4:B24"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet1">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="B2:X20"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S51" sqref="S51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.625" style="1" customWidth="1"/>
+    <col min="7" max="9" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24">
+      <c r="B2" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="G2" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+    </row>
+    <row r="3" spans="2:24">
+      <c r="B3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24">
+      <c r="B4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="11">
+        <v>9</v>
+      </c>
+      <c r="D4" s="11">
+        <v>15</v>
+      </c>
+      <c r="E4" s="11">
+        <v>14250</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="11">
+        <v>13</v>
+      </c>
+      <c r="I4" s="11">
+        <v>10</v>
+      </c>
+      <c r="J4" s="11">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24">
+      <c r="B5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="11">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11">
+        <v>10</v>
+      </c>
+      <c r="E5" s="11">
+        <v>14000</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="11">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11">
+        <v>7</v>
+      </c>
+      <c r="J5" s="11">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24">
+      <c r="B6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="11">
+        <v>11</v>
+      </c>
+      <c r="D6" s="11">
+        <v>15</v>
+      </c>
+      <c r="E6" s="11">
+        <v>8400</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="11">
+        <v>23</v>
+      </c>
+      <c r="I6" s="11">
+        <v>25</v>
+      </c>
+      <c r="J6" s="11">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24">
+      <c r="B7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="11">
+        <v>14</v>
+      </c>
+      <c r="D7" s="11">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11">
+        <v>4760</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="11">
+        <v>19</v>
+      </c>
+      <c r="I7" s="11">
+        <v>20</v>
+      </c>
+      <c r="J7" s="11">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24">
+      <c r="B8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="11">
+        <v>15</v>
+      </c>
+      <c r="D8" s="11">
+        <v>20</v>
+      </c>
+      <c r="E8" s="11">
+        <v>19000</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="11">
+        <v>13</v>
+      </c>
+      <c r="I8" s="11">
+        <v>15</v>
+      </c>
+      <c r="J8" s="11">
+        <v>21000</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24">
+      <c r="B9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="11">
+        <v>17</v>
+      </c>
+      <c r="D9" s="11">
+        <v>23</v>
+      </c>
+      <c r="E9" s="11">
+        <v>21850</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="11">
+        <v>8</v>
+      </c>
+      <c r="I9" s="11">
+        <v>10</v>
+      </c>
+      <c r="J9" s="11">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24">
+      <c r="B10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="11">
+        <v>12</v>
+      </c>
+      <c r="D10" s="11">
+        <v>10</v>
+      </c>
+      <c r="E10" s="11">
+        <v>3400</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="11">
+        <v>14</v>
+      </c>
+      <c r="I10" s="11">
+        <v>15</v>
+      </c>
+      <c r="J10" s="11">
+        <v>14250</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24">
+      <c r="B11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="11">
+        <v>19</v>
+      </c>
+      <c r="D11" s="11">
+        <v>15</v>
+      </c>
+      <c r="E11" s="11">
+        <v>8400</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="11">
+        <v>9</v>
+      </c>
+      <c r="I11" s="11">
+        <v>15</v>
+      </c>
+      <c r="J11" s="11">
+        <v>14250</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24">
+      <c r="B12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="11">
+        <v>20</v>
+      </c>
+      <c r="D12" s="11">
+        <v>15</v>
+      </c>
+      <c r="E12" s="11">
+        <v>21000</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="11">
+        <v>12</v>
+      </c>
+      <c r="I12" s="11">
+        <v>15</v>
+      </c>
+      <c r="J12" s="11">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24">
+      <c r="B13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="11">
+        <v>21</v>
+      </c>
+      <c r="D13" s="11">
+        <v>16</v>
+      </c>
+      <c r="E13" s="11">
+        <v>8960</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="11">
+        <v>19</v>
+      </c>
+      <c r="I13" s="11">
+        <v>25</v>
+      </c>
+      <c r="J13" s="11">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" ht="17.25" thickBot="1">
+      <c r="G14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="11">
+        <v>24</v>
+      </c>
+      <c r="I14" s="11">
+        <v>30</v>
+      </c>
+      <c r="J14" s="11">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" ht="17.25" thickBot="1">
+      <c r="B15" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="94"/>
+      <c r="G15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="11">
+        <v>21</v>
+      </c>
+      <c r="I15" s="11">
+        <v>29</v>
+      </c>
+      <c r="J15" s="11">
+        <v>16240</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" ht="17.25" thickBot="1">
+      <c r="B16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="17">
+        <v>12.142857142857142</v>
+      </c>
+      <c r="D17" s="18">
+        <v>15.428571428571429</v>
+      </c>
+      <c r="E17" s="19">
+        <v>14657.142857142857</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="21">
+        <v>14.2</v>
+      </c>
+      <c r="D18" s="22">
+        <v>15.4</v>
+      </c>
+      <c r="E18" s="23">
+        <v>21560</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="21">
+        <v>19</v>
+      </c>
+      <c r="D19" s="22">
+        <v>20.833333333333332</v>
+      </c>
+      <c r="E19" s="23">
+        <v>11666.666666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="17.25" thickBot="1">
+      <c r="B20" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="25">
+        <v>14.25</v>
+      </c>
+      <c r="D20" s="26">
+        <v>14.75</v>
+      </c>
+      <c r="E20" s="27">
+        <v>5015</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate function="average" leftLabels="1" topLabels="1">
+    <dataRefs count="2">
+      <dataRef ref="B3:E13" sheet="통합_01"/>
+      <dataRef ref="G3:J15" sheet="통합_01"/>
+    </dataRefs>
+  </dataConsolidate>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B15:E15"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84468AE3-1ABD-49CC-971B-95DAC13A5086}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.625" style="1" customWidth="1"/>
+    <col min="7" max="9" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10">
+      <c r="B2" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="G2" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="83" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="11">
+        <v>9</v>
+      </c>
+      <c r="D4" s="11">
+        <v>15</v>
+      </c>
+      <c r="E4" s="11">
+        <v>14250</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="11">
+        <v>13</v>
+      </c>
+      <c r="I4" s="11">
+        <v>10</v>
+      </c>
+      <c r="J4" s="11">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="11">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11">
+        <v>10</v>
+      </c>
+      <c r="E5" s="11">
+        <v>14000</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="11">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11">
+        <v>7</v>
+      </c>
+      <c r="J5" s="11">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="11">
+        <v>11</v>
+      </c>
+      <c r="D6" s="11">
+        <v>15</v>
+      </c>
+      <c r="E6" s="11">
+        <v>8400</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="11">
+        <v>23</v>
+      </c>
+      <c r="I6" s="11">
+        <v>25</v>
+      </c>
+      <c r="J6" s="11">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="11">
+        <v>14</v>
+      </c>
+      <c r="D7" s="11">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11">
+        <v>4760</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="11">
+        <v>19</v>
+      </c>
+      <c r="I7" s="11">
+        <v>20</v>
+      </c>
+      <c r="J7" s="11">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="11">
+        <v>15</v>
+      </c>
+      <c r="D8" s="11">
+        <v>20</v>
+      </c>
+      <c r="E8" s="11">
+        <v>19000</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="11">
+        <v>13</v>
+      </c>
+      <c r="I8" s="11">
+        <v>15</v>
+      </c>
+      <c r="J8" s="11">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="11">
+        <v>17</v>
+      </c>
+      <c r="D9" s="11">
+        <v>23</v>
+      </c>
+      <c r="E9" s="11">
+        <v>21850</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="11">
+        <v>8</v>
+      </c>
+      <c r="I9" s="11">
+        <v>10</v>
+      </c>
+      <c r="J9" s="11">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="11">
+        <v>12</v>
+      </c>
+      <c r="D10" s="11">
+        <v>10</v>
+      </c>
+      <c r="E10" s="11">
+        <v>3400</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="11">
+        <v>14</v>
+      </c>
+      <c r="I10" s="11">
+        <v>15</v>
+      </c>
+      <c r="J10" s="11">
+        <v>14250</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="11">
+        <v>19</v>
+      </c>
+      <c r="D11" s="11">
+        <v>15</v>
+      </c>
+      <c r="E11" s="11">
+        <v>8400</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="11">
+        <v>9</v>
+      </c>
+      <c r="I11" s="11">
+        <v>15</v>
+      </c>
+      <c r="J11" s="11">
+        <v>14250</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="11">
+        <v>20</v>
+      </c>
+      <c r="D12" s="11">
+        <v>15</v>
+      </c>
+      <c r="E12" s="11">
+        <v>21000</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="11">
+        <v>12</v>
+      </c>
+      <c r="I12" s="11">
+        <v>15</v>
+      </c>
+      <c r="J12" s="11">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="11">
+        <v>21</v>
+      </c>
+      <c r="D13" s="11">
+        <v>16</v>
+      </c>
+      <c r="E13" s="11">
+        <v>8960</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="11">
+        <v>19</v>
+      </c>
+      <c r="I13" s="11">
+        <v>25</v>
+      </c>
+      <c r="J13" s="11">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="17.25" thickBot="1">
+      <c r="G14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="11">
+        <v>24</v>
+      </c>
+      <c r="I14" s="11">
+        <v>30</v>
+      </c>
+      <c r="J14" s="11">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B15" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="94"/>
+      <c r="G15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="11">
+        <v>21</v>
+      </c>
+      <c r="I15" s="11">
+        <v>29</v>
+      </c>
+      <c r="J15" s="11">
+        <v>16240</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="2:5" ht="17.25" thickBot="1">
+      <c r="B20" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
+    </row>
+  </sheetData>
+  <dataConsolidate function="average" leftLabels="1" topLabels="1">
+    <dataRefs count="2">
+      <dataRef ref="B3:E13" sheet="통합_01 (원본백업)"/>
+      <dataRef ref="G3:J15" sheet="통합_01 (원본백업)"/>
+    </dataRefs>
+  </dataConsolidate>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B15:E15"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet2">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="B2:J27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S51" sqref="S51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="3.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10">
+      <c r="B2" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="G2" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="11">
+        <v>12</v>
+      </c>
+      <c r="D4" s="11">
+        <v>13</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1800000</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="11">
+        <v>18</v>
+      </c>
+      <c r="I4" s="11">
+        <v>10</v>
+      </c>
+      <c r="J4" s="11">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="11">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11">
+        <v>7500000</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="11">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11">
+        <v>4</v>
+      </c>
+      <c r="J5" s="11">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="11">
+        <v>11</v>
+      </c>
+      <c r="D6" s="11">
+        <v>8</v>
+      </c>
+      <c r="E6" s="11">
+        <v>6400000</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="11">
+        <v>23</v>
+      </c>
+      <c r="I6" s="11">
+        <v>8</v>
+      </c>
+      <c r="J6" s="11">
+        <v>6400000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="11">
+        <v>14</v>
+      </c>
+      <c r="D7" s="11">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11">
+        <v>4900000</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="11">
+        <v>19</v>
+      </c>
+      <c r="I7" s="11">
+        <v>15</v>
+      </c>
+      <c r="J7" s="11">
+        <v>5250000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="11">
+        <v>18</v>
+      </c>
+      <c r="D8" s="11">
+        <v>18</v>
+      </c>
+      <c r="E8" s="11">
+        <v>2400000</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="11">
+        <v>13</v>
+      </c>
+      <c r="I8" s="11">
+        <v>6</v>
+      </c>
+      <c r="J8" s="11">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="11">
+        <v>24</v>
+      </c>
+      <c r="D9" s="11">
+        <v>23</v>
+      </c>
+      <c r="E9" s="11">
+        <v>2760000</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="11">
+        <v>8</v>
+      </c>
+      <c r="I9" s="11">
+        <v>6</v>
+      </c>
+      <c r="J9" s="11">
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="11">
+        <v>12</v>
+      </c>
+      <c r="D10" s="11">
+        <v>10</v>
+      </c>
+      <c r="E10" s="11">
+        <v>3500000</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="11">
+        <v>14</v>
+      </c>
+      <c r="I10" s="11">
+        <v>4</v>
+      </c>
+      <c r="J10" s="11">
+        <v>4800000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="11">
+        <v>19</v>
+      </c>
+      <c r="D11" s="11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="11">
+        <v>3200000</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="11">
+        <v>10</v>
+      </c>
+      <c r="I11" s="11">
+        <v>8</v>
+      </c>
+      <c r="J11" s="11">
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="11">
+        <v>20</v>
+      </c>
+      <c r="D12" s="11">
+        <v>6</v>
+      </c>
+      <c r="E12" s="11">
+        <v>9000000</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="11">
+        <v>12</v>
+      </c>
+      <c r="I12" s="11">
+        <v>12</v>
+      </c>
+      <c r="J12" s="11">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="11">
+        <v>21</v>
+      </c>
+      <c r="D13" s="11">
+        <v>3</v>
+      </c>
+      <c r="E13" s="11">
+        <v>2400000</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="11">
+        <v>19</v>
+      </c>
+      <c r="I13" s="11">
+        <v>8</v>
+      </c>
+      <c r="J13" s="11">
+        <v>6400000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="11">
+        <v>21</v>
+      </c>
+      <c r="D14" s="11">
+        <v>11</v>
+      </c>
+      <c r="E14" s="11">
+        <v>10800000</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="11">
+        <v>24</v>
+      </c>
+      <c r="I14" s="11">
+        <v>6</v>
+      </c>
+      <c r="J14" s="11">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="G15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="11">
+        <v>21</v>
+      </c>
+      <c r="I15" s="11">
+        <v>11</v>
+      </c>
+      <c r="J15" s="11">
+        <v>8800000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="17.25" thickBot="1">
+      <c r="G16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="11">
+        <v>24</v>
+      </c>
+      <c r="I16" s="11">
+        <v>6</v>
+      </c>
+      <c r="J16" s="11">
+        <v>5200000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B17" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="94"/>
+    </row>
+    <row r="18" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="17">
+        <v>57</v>
+      </c>
+      <c r="D19" s="18">
+        <v>51</v>
+      </c>
+      <c r="E19" s="19">
+        <v>17850000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="21">
+        <v>71</v>
+      </c>
+      <c r="D20" s="22">
+        <v>27</v>
+      </c>
+      <c r="E20" s="23">
+        <v>40500000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="21">
+        <v>114</v>
+      </c>
+      <c r="D21" s="22">
+        <v>42</v>
+      </c>
+      <c r="E21" s="23">
+        <v>33600000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B22" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="25">
+        <v>90</v>
+      </c>
+      <c r="D22" s="26">
+        <v>78</v>
+      </c>
+      <c r="E22" s="27">
+        <v>9600000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+    </row>
+  </sheetData>
+  <dataConsolidate leftLabels="1" topLabels="1">
+    <dataRefs count="2">
+      <dataRef ref="B3:E14" sheet="통합_02"/>
+      <dataRef ref="G3:J16" sheet="통합_02"/>
+    </dataRefs>
+  </dataConsolidate>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B17:E17"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341C869C-1DB6-4079-96EE-3DA4E774E358}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:J27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="3.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10">
+      <c r="B2" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="G2" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="83" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="11">
+        <v>12</v>
+      </c>
+      <c r="D4" s="11">
+        <v>13</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1800000</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="11">
+        <v>18</v>
+      </c>
+      <c r="I4" s="11">
+        <v>10</v>
+      </c>
+      <c r="J4" s="11">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="11">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11">
+        <v>7500000</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="11">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11">
+        <v>4</v>
+      </c>
+      <c r="J5" s="11">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="11">
+        <v>11</v>
+      </c>
+      <c r="D6" s="11">
+        <v>8</v>
+      </c>
+      <c r="E6" s="11">
+        <v>6400000</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="11">
+        <v>23</v>
+      </c>
+      <c r="I6" s="11">
+        <v>8</v>
+      </c>
+      <c r="J6" s="11">
+        <v>6400000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="11">
+        <v>14</v>
+      </c>
+      <c r="D7" s="11">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11">
+        <v>4900000</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="11">
+        <v>19</v>
+      </c>
+      <c r="I7" s="11">
+        <v>15</v>
+      </c>
+      <c r="J7" s="11">
+        <v>5250000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="11">
+        <v>18</v>
+      </c>
+      <c r="D8" s="11">
+        <v>18</v>
+      </c>
+      <c r="E8" s="11">
+        <v>2400000</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="11">
+        <v>13</v>
+      </c>
+      <c r="I8" s="11">
+        <v>6</v>
+      </c>
+      <c r="J8" s="11">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="11">
+        <v>24</v>
+      </c>
+      <c r="D9" s="11">
+        <v>23</v>
+      </c>
+      <c r="E9" s="11">
+        <v>2760000</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="11">
+        <v>8</v>
+      </c>
+      <c r="I9" s="11">
+        <v>6</v>
+      </c>
+      <c r="J9" s="11">
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="11">
+        <v>12</v>
+      </c>
+      <c r="D10" s="11">
+        <v>10</v>
+      </c>
+      <c r="E10" s="11">
+        <v>3500000</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="11">
+        <v>14</v>
+      </c>
+      <c r="I10" s="11">
+        <v>4</v>
+      </c>
+      <c r="J10" s="11">
+        <v>4800000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="11">
+        <v>19</v>
+      </c>
+      <c r="D11" s="11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="11">
+        <v>3200000</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="11">
+        <v>10</v>
+      </c>
+      <c r="I11" s="11">
+        <v>8</v>
+      </c>
+      <c r="J11" s="11">
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="11">
+        <v>20</v>
+      </c>
+      <c r="D12" s="11">
+        <v>6</v>
+      </c>
+      <c r="E12" s="11">
+        <v>9000000</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="11">
+        <v>12</v>
+      </c>
+      <c r="I12" s="11">
+        <v>12</v>
+      </c>
+      <c r="J12" s="11">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="11">
+        <v>21</v>
+      </c>
+      <c r="D13" s="11">
+        <v>3</v>
+      </c>
+      <c r="E13" s="11">
+        <v>2400000</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="11">
+        <v>19</v>
+      </c>
+      <c r="I13" s="11">
+        <v>8</v>
+      </c>
+      <c r="J13" s="11">
+        <v>6400000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="11">
+        <v>21</v>
+      </c>
+      <c r="D14" s="11">
+        <v>11</v>
+      </c>
+      <c r="E14" s="11">
+        <v>10800000</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="11">
+        <v>24</v>
+      </c>
+      <c r="I14" s="11">
+        <v>6</v>
+      </c>
+      <c r="J14" s="11">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="G15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="11">
+        <v>21</v>
+      </c>
+      <c r="I15" s="11">
+        <v>11</v>
+      </c>
+      <c r="J15" s="11">
+        <v>8800000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="17.25" thickBot="1">
+      <c r="G16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="11">
+        <v>24</v>
+      </c>
+      <c r="I16" s="11">
+        <v>6</v>
+      </c>
+      <c r="J16" s="11">
+        <v>5200000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B17" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="94"/>
+    </row>
+    <row r="18" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B22" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B17:E17"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet3">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S51" sqref="S51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="95"/>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" thickBot="1"/>
+    <row r="3" spans="1:2">
+      <c r="A3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="30">
+        <v>1886666.6666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="32">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="32">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="32">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A7" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="34">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A9" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="34">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.25" thickBot="1"/>
+    <row r="11" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A11" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="36">
+        <f>SUM(B3:B7,B9)</f>
+        <v>2916666.666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17.25" thickBot="1"/>
+    <row r="13" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A13" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="36">
+        <f>B11*12</f>
+        <v>35000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94750CCA-9624-41AD-A1BA-9E34D723B56C}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="95"/>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" thickBot="1"/>
+    <row r="3" spans="1:2">
+      <c r="A3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="30">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="32">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="32">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="32">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A7" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="34">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A9" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="34">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.25" thickBot="1"/>
+    <row r="11" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A11" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="36">
+        <f>SUM(B3:B7,B9)</f>
+        <v>2430000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17.25" thickBot="1"/>
+    <row r="13" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A13" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="36">
+        <f>B11*12</f>
+        <v>29160000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>